--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H2">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N2">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q2">
-        <v>5559.83026551014</v>
+        <v>250.1411913321485</v>
       </c>
       <c r="R2">
-        <v>50038.47238959125</v>
+        <v>2251.270721989336</v>
       </c>
       <c r="S2">
-        <v>0.4190599577209056</v>
+        <v>0.03194966854226414</v>
       </c>
       <c r="T2">
-        <v>0.4190599577209056</v>
+        <v>0.03194966854226414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H3">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q3">
-        <v>22.21895130123933</v>
+        <v>0.9356957360674444</v>
       </c>
       <c r="R3">
-        <v>199.970561711154</v>
+        <v>8.421261624607</v>
       </c>
       <c r="S3">
-        <v>0.001674704505038677</v>
+        <v>0.0001195131775960426</v>
       </c>
       <c r="T3">
-        <v>0.001674704505038677</v>
+        <v>0.0001195131775960426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H4">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N4">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q4">
-        <v>28.53452773239266</v>
+        <v>2.712313292095</v>
       </c>
       <c r="R4">
-        <v>256.810749591534</v>
+        <v>24.410819628855</v>
       </c>
       <c r="S4">
-        <v>0.002150727165054077</v>
+        <v>0.000346434388529576</v>
       </c>
       <c r="T4">
-        <v>0.002150727165054077</v>
+        <v>0.000346434388529576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
         <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N5">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q5">
-        <v>5685.378685696354</v>
+        <v>6073.960793109406</v>
       </c>
       <c r="R5">
-        <v>51168.40817126718</v>
+        <v>54665.64713798466</v>
       </c>
       <c r="S5">
-        <v>0.4285228933039462</v>
+        <v>0.7758059879904808</v>
       </c>
       <c r="T5">
-        <v>0.4285228933039461</v>
+        <v>0.7758059879904809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
         <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q6">
         <v>22.72068500548022</v>
@@ -818,10 +818,10 @@
         <v>204.486165049322</v>
       </c>
       <c r="S6">
-        <v>0.001712521577655201</v>
+        <v>0.002902034451472559</v>
       </c>
       <c r="T6">
-        <v>0.0017125215776552</v>
+        <v>0.00290203445147256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
         <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N7">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q7">
-        <v>29.17887561829578</v>
+        <v>65.86074251536999</v>
       </c>
       <c r="R7">
-        <v>262.609880564662</v>
+        <v>592.7466826383301</v>
       </c>
       <c r="S7">
-        <v>0.002199293467428299</v>
+        <v>0.008412164674307431</v>
       </c>
       <c r="T7">
-        <v>0.002199293467428298</v>
+        <v>0.008412164674307431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H8">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I8">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J8">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N8">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q8">
-        <v>1902.160064112077</v>
+        <v>1392.585876610925</v>
       </c>
       <c r="R8">
-        <v>17119.44057700869</v>
+        <v>12533.27288949833</v>
       </c>
       <c r="S8">
-        <v>0.1433711242931375</v>
+        <v>0.1778701737902819</v>
       </c>
       <c r="T8">
-        <v>0.1433711242931375</v>
+        <v>0.1778701737902819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H9">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I9">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J9">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q9">
-        <v>7.601671240550111</v>
+        <v>5.209204689212333</v>
       </c>
       <c r="R9">
-        <v>68.41504116495099</v>
+        <v>46.882842202911</v>
       </c>
       <c r="S9">
-        <v>0.0005729592229522612</v>
+        <v>0.0006653536840645567</v>
       </c>
       <c r="T9">
-        <v>0.0005729592229522611</v>
+        <v>0.0006653536840645567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H10">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I10">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J10">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N10">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q10">
-        <v>9.762391387657889</v>
+        <v>15.099988783935</v>
       </c>
       <c r="R10">
-        <v>87.861522488921</v>
+        <v>135.899899055415</v>
       </c>
       <c r="S10">
-        <v>0.0007358187438823689</v>
+        <v>0.001928669301002988</v>
       </c>
       <c r="T10">
-        <v>0.0007358187438823687</v>
+        <v>0.001928669301002988</v>
       </c>
     </row>
   </sheetData>
